--- a/ETC/제품 백로그.xlsx
+++ b/ETC/제품 백로그.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\드라이브\3학년 2학기\소프트웨어개발론PBL\소개론 프로젝트\토의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanvi\Desktop\GNU\드라이브\3학년 2학기\소프트웨어개발론PBL\소개론 프로젝트\토의\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D882AE3-779E-4634-97F5-F0547387262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE592C2D-0DF0-4A68-8FE7-7EDB26FC1237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{123BE83C-23EB-4A1A-BA5B-F5D6352B3699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="582" xr2:uid="{123BE83C-23EB-4A1A-BA5B-F5D6352B3699}"/>
   </bookViews>
   <sheets>
     <sheet name="제품 백로그" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정혜미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>XD program</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +226,10 @@
   </si>
   <si>
     <t>강한빛, 정혜미, 손현석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*2*0.8=3.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,9 +276,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -603,7 +606,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,14 +653,14 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -671,14 +674,14 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -696,10 +699,10 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -713,11 +716,11 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>24</v>
@@ -728,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -737,10 +740,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -754,14 +757,14 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -775,14 +778,14 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -796,25 +799,25 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -831,10 +834,10 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -848,12 +851,12 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -867,14 +870,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -888,14 +891,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,11 +912,11 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -932,7 +935,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,25 +946,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -972,10 +975,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -985,11 +988,11 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1000,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -1011,35 +1014,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1050,7 +1053,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -1064,19 +1067,19 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1089,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,10 +1103,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,10 +1117,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,10 +1131,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,10 +1145,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1156,10 +1159,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1170,10 +1173,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
